--- a/results/mp/logistic/home-spam/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,115 +49,118 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>glasses</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>plates</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
     <t>cracked</t>
   </si>
   <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>defective</t>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>seal</t>
   </si>
   <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>unless</t>
-  </si>
-  <si>
-    <t>returning</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>china</t>
+  </si>
+  <si>
+    <t>lid</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
     <t>filter</t>
   </si>
   <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>after</t>
   </si>
   <si>
     <t>1</t>
@@ -166,73 +169,178 @@
     <t>guess</t>
   </si>
   <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
     <t>received</t>
   </si>
   <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>did</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>machine</t>
+    <t>fit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>hold</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>2</t>
+    <t>didn</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
+    <t>"</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>item</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>was</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>use</t>
+    <t>it</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -241,12 +349,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -275,6 +383,9 @@
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -635,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +815,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K3">
-        <v>0.84375</v>
+        <v>0.8046875</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="K4">
-        <v>0.7204301075268817</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L4">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8679245283018868</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="K5">
-        <v>0.6956521739130435</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8620689655172413</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="K6">
-        <v>0.6915254237288135</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L6">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M6">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8571428571428571</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K7">
-        <v>0.5975232198142415</v>
+        <v>0.5897832817337462</v>
       </c>
       <c r="L7">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M7">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.847457627118644</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="K8">
-        <v>0.4935064935064935</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.85</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="K9">
-        <v>0.4675324675324675</v>
+        <v>0.4978354978354979</v>
       </c>
       <c r="L9">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,16 +1186,16 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="K10">
-        <v>0.4078947368421053</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="K11">
-        <v>0.2571428571428571</v>
+        <v>0.2171428571428571</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1265,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K12">
-        <v>0.2222222222222222</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.775</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="K13">
-        <v>0.1653290529695024</v>
+        <v>0.1581059390048154</v>
       </c>
       <c r="L13">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M13">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1040</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7351351351351352</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="C14">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="K14">
         <v>0.1441441441441441</v>
@@ -1304,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7307692307692307</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K15">
-        <v>0.06301369863013699</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,10 +1468,10 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,7 +1483,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16">
+        <v>0.01881331403762663</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>0.91</v>
+      </c>
+      <c r="O16">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>2034</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1406,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6764705882352942</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1432,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6712328767123288</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1458,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6521739130434783</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1484,7 +1619,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6176470588235294</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -1502,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1510,13 +1645,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6071428571428571</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1528,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1562,13 +1697,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6071428571428571</v>
+        <v>0.6037037037037037</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>1141</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>1141</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1580,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1588,7 +1723,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5757575757575758</v>
+        <v>0.59375</v>
       </c>
       <c r="C25">
         <v>19</v>
@@ -1606,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1614,13 +1749,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5754716981132075</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1632,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1640,13 +1775,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5660377358490566</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1658,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1666,13 +1801,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5407407407407407</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="C28">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1684,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1692,13 +1827,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.53125</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1710,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1718,13 +1853,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5294117647058824</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1736,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1744,25 +1879,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5161290322580645</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>16</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1770,13 +1905,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1788,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1796,13 +1931,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4923076923076923</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C33">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1814,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1822,13 +1957,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4857142857142857</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1840,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1848,13 +1983,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4806201550387597</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1866,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1874,13 +2009,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4788732394366197</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1892,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1900,13 +2035,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4772727272727273</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1918,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1926,13 +2061,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4571428571428571</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1944,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1952,13 +2087,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4482758620689655</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1970,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1978,13 +2113,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1996,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2004,13 +2139,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4222222222222222</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2022,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2030,13 +2165,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4121621621621622</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2048,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2056,13 +2191,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3883495145631068</v>
+        <v>0.3432432432432432</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2074,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>63</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2082,13 +2217,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3846153846153846</v>
+        <v>0.3203883495145631</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2100,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2108,13 +2243,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3809523809523809</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2126,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2134,13 +2269,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3628318584070797</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2152,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2160,13 +2295,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3333333333333333</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2178,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2186,13 +2321,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3173076923076923</v>
+        <v>0.2626472626472626</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2204,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>71</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2212,13 +2347,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2692307692307692</v>
+        <v>0.2625698324022346</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2230,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2238,13 +2373,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2424242424242424</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2256,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2264,13 +2399,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2368421052631579</v>
+        <v>0.2565055762081784</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2282,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>58</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2290,13 +2425,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.23</v>
+        <v>0.2355555555555555</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2308,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>77</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2316,13 +2451,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2298850574712644</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2334,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>67</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2342,13 +2477,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2290502793296089</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2360,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2368,13 +2503,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2164948453608248</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2386,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2394,13 +2529,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.126984126984127</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2412,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2420,13 +2555,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.125</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2438,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2446,13 +2581,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1212938005390836</v>
+        <v>0.17</v>
       </c>
       <c r="C58">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2464,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>326</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2472,13 +2607,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1172413793103448</v>
+        <v>0.145</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2490,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2498,13 +2633,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2516,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>186</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2524,13 +2659,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1021505376344086</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2542,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>167</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2550,13 +2685,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.09933774834437085</v>
+        <v>0.1395555555555555</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2568,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>136</v>
+        <v>968</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2576,13 +2711,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.07142857142857142</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2594,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>273</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2602,13 +2737,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0568561872909699</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2620,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>282</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2628,13 +2763,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0469361147327249</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C65">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2646,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>731</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2654,13 +2789,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04625850340136054</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2672,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>701</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2680,25 +2815,961 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01904761904761905</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.09863945578231292</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.09550561797752809</v>
+      </c>
+      <c r="C69">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.08421052631578947</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.06989247311827956</v>
+      </c>
+      <c r="C71">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.06267029972752043</v>
+      </c>
+      <c r="C72">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.05783582089552239</v>
+      </c>
+      <c r="C73">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>31</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.05532359081419624</v>
+      </c>
+      <c r="C74">
+        <v>53</v>
+      </c>
+      <c r="D74">
+        <v>53</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.05259087393658159</v>
+      </c>
+      <c r="C75">
+        <v>68</v>
+      </c>
+      <c r="D75">
+        <v>68</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.04954367666232073</v>
+      </c>
+      <c r="C76">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>38</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.04946236559139785</v>
+      </c>
+      <c r="C77">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>23</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="C78">
         <v>24</v>
       </c>
-      <c r="E67">
-        <v>0.08</v>
-      </c>
-      <c r="F67">
-        <v>0.92</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1133</v>
+      <c r="D78">
+        <v>24</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.04416809605488851</v>
+      </c>
+      <c r="C79">
+        <v>103</v>
+      </c>
+      <c r="D79">
+        <v>103</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.04415011037527594</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.04182735093444082</v>
+      </c>
+      <c r="C81">
+        <v>282</v>
+      </c>
+      <c r="D81">
+        <v>285</v>
+      </c>
+      <c r="E81">
+        <v>0.01</v>
+      </c>
+      <c r="F81">
+        <v>0.99</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.04157549234135667</v>
+      </c>
+      <c r="C82">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.04011259676284307</v>
+      </c>
+      <c r="C83">
+        <v>57</v>
+      </c>
+      <c r="D83">
+        <v>58</v>
+      </c>
+      <c r="E83">
+        <v>0.02</v>
+      </c>
+      <c r="F83">
+        <v>0.98</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.03945578231292517</v>
+      </c>
+      <c r="C84">
+        <v>29</v>
+      </c>
+      <c r="D84">
+        <v>29</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.03820497271073378</v>
+      </c>
+      <c r="C85">
+        <v>252</v>
+      </c>
+      <c r="D85">
+        <v>256</v>
+      </c>
+      <c r="E85">
+        <v>0.02</v>
+      </c>
+      <c r="F85">
+        <v>0.98</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.03667481662591687</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.03114754098360656</v>
+      </c>
+      <c r="C87">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.02917962209997608</v>
+      </c>
+      <c r="C88">
+        <v>122</v>
+      </c>
+      <c r="D88">
+        <v>124</v>
+      </c>
+      <c r="E88">
+        <v>0.02</v>
+      </c>
+      <c r="F88">
+        <v>0.98</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.02783964365256125</v>
+      </c>
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>25</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.02622192229827437</v>
+      </c>
+      <c r="C90">
+        <v>272</v>
+      </c>
+      <c r="D90">
+        <v>281</v>
+      </c>
+      <c r="E90">
+        <v>0.03</v>
+      </c>
+      <c r="F90">
+        <v>0.97</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.02523240371845949</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>0.05</v>
+      </c>
+      <c r="F91">
+        <v>0.95</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.02238805970149254</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>15</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.02115702479338843</v>
+      </c>
+      <c r="C93">
+        <v>64</v>
+      </c>
+      <c r="D93">
+        <v>69</v>
+      </c>
+      <c r="E93">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F93">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.02110667427267541</v>
+      </c>
+      <c r="C94">
+        <v>37</v>
+      </c>
+      <c r="D94">
+        <v>39</v>
+      </c>
+      <c r="E94">
+        <v>0.05</v>
+      </c>
+      <c r="F94">
+        <v>0.95</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.02033898305084746</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95">
+        <v>24</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.02018163471241171</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.01981981981981982</v>
+      </c>
+      <c r="C97">
+        <v>77</v>
+      </c>
+      <c r="D97">
+        <v>79</v>
+      </c>
+      <c r="E97">
+        <v>0.03</v>
+      </c>
+      <c r="F97">
+        <v>0.97</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.0181992337164751</v>
+      </c>
+      <c r="C98">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>0.05</v>
+      </c>
+      <c r="F98">
+        <v>0.95</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.01782485145957117</v>
+      </c>
+      <c r="C99">
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <v>76</v>
+      </c>
+      <c r="E99">
+        <v>0.09</v>
+      </c>
+      <c r="F99">
+        <v>0.91</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.01386861313868613</v>
+      </c>
+      <c r="C100">
+        <v>76</v>
+      </c>
+      <c r="D100">
+        <v>85</v>
+      </c>
+      <c r="E100">
+        <v>0.11</v>
+      </c>
+      <c r="F100">
+        <v>0.89</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.01352201257861635</v>
+      </c>
+      <c r="C101">
+        <v>43</v>
+      </c>
+      <c r="D101">
+        <v>48</v>
+      </c>
+      <c r="E101">
+        <v>0.1</v>
+      </c>
+      <c r="F101">
+        <v>0.9</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.01173450678401173</v>
+      </c>
+      <c r="C102">
+        <v>32</v>
+      </c>
+      <c r="D102">
+        <v>35</v>
+      </c>
+      <c r="E102">
+        <v>0.09</v>
+      </c>
+      <c r="F102">
+        <v>0.91</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.007628294036061026</v>
+      </c>
+      <c r="C103">
+        <v>33</v>
+      </c>
+      <c r="D103">
+        <v>45</v>
+      </c>
+      <c r="E103">
+        <v>0.27</v>
+      </c>
+      <c r="F103">
+        <v>0.73</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
